--- a/additional_results_rebuttal/Partitioner_runtime_comparisons.xlsx
+++ b/additional_results_rebuttal/Partitioner_runtime_comparisons.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bodhi91/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CF931E-88A3-C946-BADB-FD5F11D183A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDEB6EE-33A8-1A47-9ECA-A877233CFAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +486,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
